--- a/src/files/stats/data/df_statistiken.xlsx
+++ b/src/files/stats/data/df_statistiken.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09469688-037C-4EEC-9B1C-37F44CD5CF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="747" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT_FLÄCHEN" sheetId="1" r:id="rId1"/>
@@ -15,10 +16,16 @@
     <sheet name="AT_BRP_REAL" sheetId="7" r:id="rId6"/>
     <sheet name="AT_HGS" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -213,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -349,13 +356,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20 % - Akzent3" xfId="2" builtinId="38"/>
-    <cellStyle name="cells" xfId="6"/>
-    <cellStyle name="column field" xfId="5"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Link" xfId="3" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="4"/>
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="cells" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="column field" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,16 +639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>3965</f>
         <v>3965</v>
@@ -718,23 +725,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -772,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -811,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2004</v>
       </c>
@@ -850,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2006</v>
       </c>
@@ -889,7 +894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2007</v>
       </c>
@@ -928,7 +933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2008</v>
       </c>
@@ -967,7 +972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2009</v>
       </c>
@@ -1006,7 +1011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2010</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2011</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2012</v>
       </c>
@@ -1123,7 +1128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2013</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2015</v>
       </c>
@@ -1201,7 +1206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2014</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2016</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2017</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2019</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2018</v>
       </c>
@@ -1402,16 +1407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1982</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>7584094</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1983</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>7564185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1984</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>7559635</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1985</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>7563233</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1986</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>7566736</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1987</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>7572852</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1988</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>7576319</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1989</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>7594315</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1990</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>7644818</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1991</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>7710882</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1992</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>7798899</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1993</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>7882519</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1994</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>7928746</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1995</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>7943489</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1996</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>7953067</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1997</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>7964966</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>7971116</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>7982461</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>8002186</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2001</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>8020946</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>8063640</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2003</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>8100273</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2004</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>8142573</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>8201359</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2006</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>8254298</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2007</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>8282984</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2008</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>8307989</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>8335003</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>8351643</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>8375164</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2012</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>8408121</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>8451860</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>8507786</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>8584926</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>8700471</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>8772865</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>8822267</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -2820,23 +2823,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -3564,16 +3565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1993</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1996</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1997</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2025</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2030</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2035</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2040</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2050</v>
       </c>
@@ -5056,23 +5057,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -5118,7 +5119,7 @@
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -5808,16 +5809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1980</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1981</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1982</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1983</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1984</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1993</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1994</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1995</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1996</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1997</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1998</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1999</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2000</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2001</v>
       </c>
@@ -6691,7 +6690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2012</v>
       </c>
@@ -7109,7 +7108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2018</v>
       </c>
